--- a/assets/test-1.xlsx
+++ b/assets/test-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\hackathon-dwi\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE6B58B-1C33-43EF-AAE5-ACEEA4EC8764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CB7BE4-2FED-4867-A21F-2C5D22EFABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="4620" windowWidth="20730" windowHeight="11040" xr2:uid="{E861522F-2643-488C-9874-E92820CE610F}"/>
   </bookViews>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -157,6 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF72439-720B-4362-8669-B89F869E68EC}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +509,7 @@
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>40934</v>
       </c>
       <c r="C1" t="s">
